--- a/doc/05_ファイル構成一覧表_チーム天然水.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム天然水.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\会社\研修\チーム開発\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF1221E-710D-4FB6-9786-448C41F4909B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F62E808-7984-414D-9C28-72E41042B356}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5970" yWindow="6540" windowWidth="12930" windowHeight="12750" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="22035" yWindow="5670" windowWidth="12930" windowHeight="12750" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="192">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -905,10 +905,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>style.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>login.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1342,10 +1338,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>index.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全画面js</t>
     <rPh sb="0" eb="3">
       <t>ゼンガメン</t>
@@ -1361,6 +1353,26 @@
     <rPh sb="0" eb="2">
       <t>タントウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/jsp_adm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/css_adm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/js_adm</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1449,7 +1461,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1768,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1819,7 +1831,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -2762,7 +2774,7 @@
         <v>82</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>112</v>
@@ -2781,7 +2793,7 @@
         <v>82</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>111</v>
@@ -2800,7 +2812,7 @@
         <v>82</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>110</v>
@@ -2819,7 +2831,7 @@
         <v>82</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>109</v>
@@ -2838,7 +2850,7 @@
         <v>82</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>108</v>
@@ -2857,7 +2869,7 @@
         <v>82</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>108</v>
@@ -2876,7 +2888,7 @@
         <v>82</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>107</v>
@@ -2898,10 +2910,10 @@
         <v>122</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -2917,10 +2929,10 @@
         <v>122</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G61" s="1"/>
     </row>
@@ -2936,10 +2948,10 @@
         <v>122</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G62" s="1"/>
     </row>
@@ -2955,10 +2967,10 @@
         <v>122</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G63" s="1"/>
     </row>
@@ -2974,10 +2986,10 @@
         <v>122</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -2993,10 +3005,10 @@
         <v>122</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G65" s="1"/>
     </row>
@@ -3012,10 +3024,10 @@
         <v>122</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G66" s="1"/>
     </row>
@@ -3031,10 +3043,10 @@
         <v>122</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G67" s="1"/>
     </row>
@@ -3050,10 +3062,10 @@
         <v>122</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G68" s="1"/>
     </row>
@@ -3069,10 +3081,10 @@
         <v>122</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G69" s="1"/>
     </row>
@@ -3088,10 +3100,10 @@
         <v>122</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G70" s="1"/>
     </row>
@@ -3104,13 +3116,13 @@
         <v>121</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G71" s="1"/>
     </row>
@@ -3123,13 +3135,13 @@
         <v>121</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G72" s="1"/>
     </row>
@@ -3142,13 +3154,13 @@
         <v>121</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G73" s="1"/>
     </row>
@@ -3161,13 +3173,13 @@
         <v>121</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G74" s="1"/>
     </row>
@@ -3180,13 +3192,13 @@
         <v>121</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G75" s="1"/>
     </row>
@@ -3199,13 +3211,13 @@
         <v>121</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G76" s="1"/>
     </row>
@@ -3218,13 +3230,13 @@
         <v>121</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="G77" s="1"/>
     </row>
@@ -3234,16 +3246,16 @@
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G78" s="1"/>
     </row>
@@ -3253,16 +3265,16 @@
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F79" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G79" s="1"/>
     </row>
@@ -3272,16 +3284,16 @@
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G80" s="1"/>
     </row>
@@ -3291,16 +3303,16 @@
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G81" s="1"/>
     </row>
@@ -3310,16 +3322,16 @@
         <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G82" s="1"/>
     </row>
@@ -3329,16 +3341,16 @@
         <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G83" s="1"/>
     </row>
@@ -3348,16 +3360,16 @@
         <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G84" s="1"/>
     </row>
@@ -3367,16 +3379,16 @@
         <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G85" s="1"/>
     </row>
@@ -3386,16 +3398,16 @@
         <v>84</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G86" s="1"/>
     </row>
@@ -3405,16 +3417,16 @@
         <v>85</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G87" s="1"/>
     </row>
@@ -3424,16 +3436,16 @@
         <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G88" s="1"/>
     </row>
@@ -3443,16 +3455,16 @@
         <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G89" s="1"/>
     </row>
@@ -3462,16 +3474,16 @@
         <v>88</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G90" s="1"/>
     </row>
@@ -3481,16 +3493,16 @@
         <v>89</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G91" s="1"/>
     </row>
@@ -3500,16 +3512,16 @@
         <v>90</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="G92" s="1"/>
     </row>
@@ -3581,7 +3593,7 @@
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" s="1">
-        <f t="shared" ref="B68:B104" si="2">ROW()-2</f>
+        <f t="shared" ref="B99:B104" si="2">ROW()-2</f>
         <v>97</v>
       </c>
       <c r="C99" s="1"/>
@@ -3653,21 +3665,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3838,10 +3835,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3864,20 +3887,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム天然水.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F62E808-7984-414D-9C28-72E41042B356}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BF03C3-F09C-47D1-B831-28C81915CCFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22035" yWindow="5670" windowWidth="12930" windowHeight="12750" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="12930" windowHeight="12750" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="199">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1373,6 +1373,34 @@
   </si>
   <si>
     <t>WebContent/WEB-INF/js_adm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AdmMainFoodListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainFoodListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainFoodList.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admMainFoodList.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainFoodList.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admMainFoodList.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admMainFoodList.js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1781,7 +1809,7 @@
   <dimension ref="B2:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1922,7 +1950,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
@@ -2093,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>38</v>
@@ -2682,7 +2710,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>95</v>
@@ -2853,7 +2881,7 @@
         <v>187</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>104</v>
@@ -3024,7 +3052,7 @@
         <v>122</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>149</v>
@@ -3195,7 +3223,7 @@
         <v>190</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>140</v>
@@ -3499,7 +3527,7 @@
         <v>191</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>171</v>
@@ -3665,6 +3693,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3835,36 +3878,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3887,9 +3904,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム天然水.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BF03C3-F09C-47D1-B831-28C81915CCFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E1D5D1-298D-4CE9-A9A7-2946E4D0A72A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="12930" windowHeight="12750" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="200">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1401,6 +1401,13 @@
   </si>
   <si>
     <t>admMainFoodList.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先順位</t>
+    <rPh sb="0" eb="4">
+      <t>ユウセンジュンイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1806,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G104"/>
+  <dimension ref="B2:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1819,9 +1826,10 @@
     <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.875" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1840,8 +1848,11 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1861,8 +1872,11 @@
       <c r="G3" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
         <v>2</v>
@@ -1880,8 +1894,11 @@
         <v>25</v>
       </c>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1899,8 +1916,11 @@
         <v>16</v>
       </c>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1918,8 +1938,11 @@
         <v>17</v>
       </c>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1937,8 +1960,11 @@
         <v>18</v>
       </c>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1956,8 +1982,11 @@
         <v>19</v>
       </c>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1975,8 +2004,11 @@
         <v>21</v>
       </c>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1994,8 +2026,11 @@
         <v>23</v>
       </c>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2013,8 +2048,11 @@
         <v>27</v>
       </c>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2032,8 +2070,11 @@
         <v>29</v>
       </c>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2051,8 +2092,11 @@
         <v>30</v>
       </c>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2070,8 +2114,11 @@
         <v>32</v>
       </c>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2089,8 +2136,11 @@
         <v>33</v>
       </c>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2108,8 +2158,11 @@
         <v>37</v>
       </c>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2127,8 +2180,11 @@
         <v>38</v>
       </c>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2146,8 +2202,11 @@
         <v>39</v>
       </c>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2165,8 +2224,11 @@
         <v>42</v>
       </c>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2184,8 +2246,9 @@
         <v>43</v>
       </c>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2203,8 +2266,9 @@
         <v>44</v>
       </c>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2222,8 +2286,9 @@
         <v>45</v>
       </c>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2241,8 +2306,9 @@
         <v>46</v>
       </c>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2260,8 +2326,9 @@
         <v>47</v>
       </c>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2279,8 +2346,9 @@
         <v>48</v>
       </c>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2298,8 +2366,9 @@
         <v>49</v>
       </c>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2317,8 +2386,9 @@
         <v>50</v>
       </c>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2336,8 +2406,9 @@
         <v>51</v>
       </c>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2355,8 +2426,9 @@
         <v>52</v>
       </c>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2374,8 +2446,9 @@
         <v>43</v>
       </c>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2393,8 +2466,11 @@
         <v>65</v>
       </c>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2412,8 +2488,11 @@
         <v>66</v>
       </c>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2431,8 +2510,11 @@
         <v>69</v>
       </c>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2450,8 +2532,11 @@
         <v>70</v>
       </c>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2469,8 +2554,11 @@
         <v>71</v>
       </c>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2488,8 +2576,11 @@
         <v>72</v>
       </c>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2507,8 +2598,11 @@
         <v>73</v>
       </c>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2526,8 +2620,11 @@
         <v>74</v>
       </c>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2545,8 +2642,11 @@
         <v>75</v>
       </c>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2564,8 +2664,11 @@
         <v>76</v>
       </c>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2583,8 +2686,11 @@
         <v>78</v>
       </c>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2602,8 +2708,11 @@
         <v>79</v>
       </c>
       <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2621,8 +2730,11 @@
         <v>84</v>
       </c>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2640,8 +2752,11 @@
         <v>91</v>
       </c>
       <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2659,8 +2774,11 @@
         <v>92</v>
       </c>
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2678,8 +2796,11 @@
         <v>93</v>
       </c>
       <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2697,8 +2818,11 @@
         <v>94</v>
       </c>
       <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2716,8 +2840,11 @@
         <v>95</v>
       </c>
       <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2735,8 +2862,11 @@
         <v>96</v>
       </c>
       <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2754,8 +2884,11 @@
         <v>97</v>
       </c>
       <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2773,8 +2906,11 @@
         <v>98</v>
       </c>
       <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2792,8 +2928,11 @@
         <v>99</v>
       </c>
       <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2811,8 +2950,11 @@
         <v>100</v>
       </c>
       <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2830,8 +2972,11 @@
         <v>101</v>
       </c>
       <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2849,8 +2994,11 @@
         <v>102</v>
       </c>
       <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2868,8 +3016,11 @@
         <v>103</v>
       </c>
       <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2887,8 +3038,11 @@
         <v>104</v>
       </c>
       <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2906,8 +3060,11 @@
         <v>105</v>
       </c>
       <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2925,8 +3082,11 @@
         <v>106</v>
       </c>
       <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2944,8 +3104,11 @@
         <v>155</v>
       </c>
       <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2963,8 +3126,11 @@
         <v>154</v>
       </c>
       <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2982,8 +3148,11 @@
         <v>153</v>
       </c>
       <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3001,8 +3170,11 @@
         <v>152</v>
       </c>
       <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3020,8 +3192,11 @@
         <v>151</v>
       </c>
       <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3039,8 +3214,11 @@
         <v>150</v>
       </c>
       <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3058,8 +3236,11 @@
         <v>149</v>
       </c>
       <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3077,8 +3258,11 @@
         <v>148</v>
       </c>
       <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
         <f t="shared" ref="B68:B98" si="1">ROW()-2</f>
         <v>66</v>
@@ -3096,8 +3280,11 @@
         <v>147</v>
       </c>
       <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -3115,8 +3302,11 @@
         <v>146</v>
       </c>
       <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3134,8 +3324,11 @@
         <v>145</v>
       </c>
       <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3153,8 +3346,11 @@
         <v>144</v>
       </c>
       <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3172,8 +3368,11 @@
         <v>143</v>
       </c>
       <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3191,8 +3390,11 @@
         <v>142</v>
       </c>
       <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H73" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3210,8 +3412,11 @@
         <v>141</v>
       </c>
       <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H74" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3229,8 +3434,11 @@
         <v>140</v>
       </c>
       <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H75" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3248,8 +3456,11 @@
         <v>139</v>
       </c>
       <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H76" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3267,8 +3478,11 @@
         <v>138</v>
       </c>
       <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H77" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3286,8 +3500,11 @@
         <v>184</v>
       </c>
       <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B79" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3305,8 +3522,11 @@
         <v>183</v>
       </c>
       <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3324,8 +3544,11 @@
         <v>182</v>
       </c>
       <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3343,8 +3566,11 @@
         <v>181</v>
       </c>
       <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3362,8 +3588,11 @@
         <v>180</v>
       </c>
       <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3381,8 +3610,11 @@
         <v>179</v>
       </c>
       <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3400,8 +3632,11 @@
         <v>178</v>
       </c>
       <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3419,8 +3654,11 @@
         <v>177</v>
       </c>
       <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -3438,8 +3676,11 @@
         <v>176</v>
       </c>
       <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -3457,8 +3698,11 @@
         <v>175</v>
       </c>
       <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -3476,8 +3720,11 @@
         <v>174</v>
       </c>
       <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H88" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -3495,8 +3742,11 @@
         <v>173</v>
       </c>
       <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H89" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -3514,8 +3764,11 @@
         <v>172</v>
       </c>
       <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H90" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -3533,8 +3786,11 @@
         <v>171</v>
       </c>
       <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H91" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -3552,8 +3808,11 @@
         <v>170</v>
       </c>
       <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H92" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -3563,8 +3822,9 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B94" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -3574,8 +3834,9 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B95" s="1">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -3585,8 +3846,9 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B96" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -3596,8 +3858,9 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B97" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -3607,8 +3870,9 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B98" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -3618,8 +3882,9 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B99" s="1">
         <f t="shared" ref="B99:B104" si="2">ROW()-2</f>
         <v>97</v>
@@ -3629,8 +3894,9 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B100" s="1">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -3640,8 +3906,9 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B101" s="1">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -3651,8 +3918,9 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B102" s="1">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -3662,8 +3930,9 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B103" s="1">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -3673,8 +3942,9 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B104" s="1">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -3684,6 +3954,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3693,21 +3964,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3878,10 +4134,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3904,20 +4186,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム天然水.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E1D5D1-298D-4CE9-A9A7-2946E4D0A72A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964BC918-DEBE-421B-8354-F3C7989AE10C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-19440" yWindow="6585" windowWidth="29100" windowHeight="29880" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="202">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1407,6 +1407,20 @@
     <t>優先順位</t>
     <rPh sb="0" eb="4">
       <t>ユウセンジュンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginUser.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Userのログイン情報の操作モデル</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1813,10 +1827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H104"/>
+  <dimension ref="B2:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1878,7 +1892,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B68" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2658,15 +2672,13 @@
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="1">
-        <v>3</v>
-      </c>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -2680,14 +2692,14 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.4">
@@ -2702,10 +2714,10 @@
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1">
@@ -2718,20 +2730,20 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
@@ -2746,10 +2758,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1">
@@ -2768,10 +2780,10 @@
         <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1">
@@ -2790,10 +2802,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1">
@@ -2812,10 +2824,10 @@
         <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1">
@@ -2834,10 +2846,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1">
@@ -2856,10 +2868,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1">
@@ -2878,10 +2890,10 @@
         <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1">
@@ -2900,10 +2912,10 @@
         <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1">
@@ -2922,10 +2934,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1">
@@ -2941,17 +2953,17 @@
         <v>82</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
@@ -2966,10 +2978,10 @@
         <v>187</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1">
@@ -2988,10 +3000,10 @@
         <v>187</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1">
@@ -3010,10 +3022,10 @@
         <v>187</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1">
@@ -3032,10 +3044,10 @@
         <v>187</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1">
@@ -3054,10 +3066,10 @@
         <v>187</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1">
@@ -3076,10 +3088,10 @@
         <v>187</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1">
@@ -3092,20 +3104,20 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.4">
@@ -3120,10 +3132,10 @@
         <v>122</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1">
@@ -3142,10 +3154,10 @@
         <v>122</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1">
@@ -3164,10 +3176,10 @@
         <v>122</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1">
@@ -3186,10 +3198,10 @@
         <v>122</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1">
@@ -3208,10 +3220,10 @@
         <v>122</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1">
@@ -3230,10 +3242,10 @@
         <v>122</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1">
@@ -3252,10 +3264,10 @@
         <v>122</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1">
@@ -3264,7 +3276,7 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
-        <f t="shared" ref="B68:B98" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -3274,10 +3286,10 @@
         <v>122</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1">
@@ -3286,7 +3298,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B69:B99" si="1">ROW()-2</f>
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3296,10 +3308,10 @@
         <v>122</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1">
@@ -3318,10 +3330,10 @@
         <v>122</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1">
@@ -3337,17 +3349,17 @@
         <v>121</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.4">
@@ -3362,10 +3374,10 @@
         <v>190</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1">
@@ -3384,10 +3396,10 @@
         <v>190</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1">
@@ -3406,10 +3418,10 @@
         <v>190</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1">
@@ -3428,10 +3440,10 @@
         <v>190</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1">
@@ -3450,10 +3462,10 @@
         <v>190</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1">
@@ -3472,10 +3484,10 @@
         <v>190</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1">
@@ -3488,20 +3500,20 @@
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.4">
@@ -3515,11 +3527,11 @@
       <c r="D79" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>183</v>
+      <c r="E79" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1">
@@ -3538,10 +3550,10 @@
         <v>185</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1">
@@ -3560,10 +3572,10 @@
         <v>185</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1">
@@ -3582,10 +3594,10 @@
         <v>185</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1">
@@ -3604,10 +3616,10 @@
         <v>185</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1">
@@ -3626,10 +3638,10 @@
         <v>185</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1">
@@ -3648,10 +3660,10 @@
         <v>185</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1">
@@ -3670,10 +3682,10 @@
         <v>185</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1">
@@ -3692,10 +3704,10 @@
         <v>185</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1">
@@ -3711,17 +3723,17 @@
         <v>156</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.4">
@@ -3736,10 +3748,10 @@
         <v>191</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1">
@@ -3758,10 +3770,10 @@
         <v>191</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1">
@@ -3780,10 +3792,10 @@
         <v>191</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1">
@@ -3802,10 +3814,10 @@
         <v>191</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1">
@@ -3817,12 +3829,22 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="H93" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B94" s="1">
@@ -3886,7 +3908,7 @@
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B99" s="1">
-        <f t="shared" ref="B99:B104" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="C99" s="1"/>
@@ -3898,7 +3920,7 @@
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B100" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B100:B105" si="2">ROW()-2</f>
         <v>98</v>
       </c>
       <c r="C100" s="1"/>
@@ -3955,6 +3977,18 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B105" s="1">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4135,18 +4169,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4169,6 +4203,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4183,12 +4225,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>